--- a/Manual_Testcase/TestCase.xlsx
+++ b/Manual_Testcase/TestCase.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiemThuUngDung\DoAnCuoiKi\DACK-2\Manual_Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E668EF-6872-4F7A-89A6-4DD8FB18162F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0FC18E-3760-4C70-852C-73B4438208AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11175" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
     <sheet name="Unit Test" sheetId="2" r:id="rId2"/>
     <sheet name="Interation Test" sheetId="9" r:id="rId3"/>
     <sheet name="System Test" sheetId="10" r:id="rId4"/>
-    <sheet name="Phân công" sheetId="11" r:id="rId5"/>
+    <sheet name="Phân công" sheetId="12" r:id="rId5"/>
     <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId6"/>
     <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId7"/>
     <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId8"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17034" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17039" uniqueCount="355">
   <si>
     <t>NOTE: To enter your own test cases
 1) Go to File &gt; Make a Copy
@@ -904,6 +904,121 @@
 Hiển thị đúng thông tin bài viết đã chọn</t>
   </si>
   <si>
+    <t>Thành viên</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Manual Test</t>
+  </si>
+  <si>
+    <t>JUNIT5</t>
+  </si>
+  <si>
+    <t>Jmeter</t>
+  </si>
+  <si>
+    <t>Lý Lương Hà</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Unit test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Test các chức năng unit test của các chức năng 
+Đăng ký
+Đăng nhập 
+Quên mật khẩu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">System Test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Đăng ký
+Đăng nhập
+Quên mật khẩu
+Xem thông tin sản phẩm
+Thêm sản phẩm vào giỏ hàng
+Giỏ hàng
+Thanh toán
+Tìm kiếm
+Lọc sản phẩm
+Xem bài viết
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Interation Test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Đăng ký - Đăng nhập
+Đăng nhập - Quên mật khẩu
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Dương Gia Trung</t>
+  </si>
+  <si>
+    <t>Đăng ký
+Đăng nhập
+Xem sản phẩm
+Đặt hàng
+Xem đơn hàng
+Hủy đơn hàng</t>
+  </si>
+  <si>
+    <t>Đăng ký
+Đăng nhập
+Đổi thông tin</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Linh</t>
+  </si>
+  <si>
+    <t>Đăng kí
+Đăng nhập
+Đặt hàng</t>
+  </si>
+  <si>
+    <t>Test hiệu năng:100,1000,1000
+Đánh giá hiệu năng và nêu lên ý kiến cải thiện</t>
+  </si>
+  <si>
     <t>SR#</t>
   </si>
   <si>
@@ -1157,39 +1272,12 @@
   <si>
     <t>An error message "Passwords not match " must be shown</t>
   </si>
-  <si>
-    <t>Phần B</t>
-  </si>
-  <si>
-    <t>Phần C</t>
-  </si>
-  <si>
-    <t>Phân công</t>
-  </si>
-  <si>
-    <t>Phần A1</t>
-  </si>
-  <si>
-    <t>Lý Lương Hà</t>
-  </si>
-  <si>
-    <t>Phần A3</t>
-  </si>
-  <si>
-    <t>Dương Gia Trung</t>
-  </si>
-  <si>
-    <t>Phần D</t>
-  </si>
-  <si>
-    <t>Hoàng Thị Linh</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1363,11 +1451,25 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1421,19 +1523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFD6DCE4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFCE4D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFE2EFDA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,7 +1774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1901,6 +2003,33 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1926,27 +2055,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2273,14 +2381,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="20" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" customWidth="1"/>
+    <col min="6" max="20" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1">
@@ -2307,12 +2415,12 @@
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2881,7 +2989,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" ht="12.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2903,7 +3011,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" ht="12.5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2925,7 +3033,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" ht="12.5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2947,7 +3055,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" ht="12.5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2969,7 +3077,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" ht="12.5">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2991,7 +3099,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" ht="12.5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3013,7 +3121,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" ht="12.5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3035,7 +3143,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" ht="12.5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3057,7 +3165,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" ht="12.5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3079,7 +3187,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" ht="12.5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3101,7 +3209,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" ht="12.5">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3123,7 +3231,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" ht="12.5">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3145,7 +3253,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" ht="12.5">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3167,7 +3275,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" ht="12.5">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3189,7 +3297,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" ht="12.5">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3211,7 +3319,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" ht="12.5">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3233,7 +3341,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" ht="12.5">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3255,7 +3363,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" ht="12.5">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3277,7 +3385,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" ht="12.5">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3299,7 +3407,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" ht="12.5">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3321,7 +3429,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" ht="12.5">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3343,7 +3451,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" ht="12.5">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3365,7 +3473,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" ht="12.5">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3387,7 +3495,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" ht="12.5">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3409,7 +3517,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" ht="12.5">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3431,7 +3539,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" ht="12.5">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3453,7 +3561,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" ht="12.5">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3475,7 +3583,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" ht="12.5">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3497,7 +3605,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" ht="12.5">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3519,7 +3627,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" ht="12.5">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3541,7 +3649,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" ht="12.5">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3563,7 +3671,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" ht="12.5">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3585,7 +3693,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" ht="12.5">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3607,7 +3715,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" ht="12.5">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3629,7 +3737,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" ht="12.5">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3651,7 +3759,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" ht="12.5">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3673,7 +3781,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" ht="12.5">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3695,7 +3803,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" ht="12.5">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3717,7 +3825,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" ht="12.5">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3739,7 +3847,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" ht="12.5">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3761,7 +3869,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" ht="12.5">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3783,7 +3891,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" ht="12.5">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3805,7 +3913,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" ht="12.5">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3827,7 +3935,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" ht="12.5">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3849,7 +3957,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" ht="12.5">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3871,7 +3979,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" ht="12.5">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3893,7 +4001,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" ht="12.5">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3915,7 +4023,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" ht="12.5">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3937,7 +4045,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" ht="12.5">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3959,7 +4067,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" ht="12.5">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3981,7 +4089,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" ht="12.5">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4003,7 +4111,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" ht="12.5">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4025,7 +4133,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" ht="12.5">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4047,7 +4155,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" ht="12.5">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4069,7 +4177,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" ht="12.5">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4091,7 +4199,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" ht="12.5">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4113,7 +4221,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" ht="12.5">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4135,7 +4243,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" ht="12.5">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4157,7 +4265,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" ht="12.5">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4179,7 +4287,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" ht="12.5">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4201,7 +4309,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" ht="12.5">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4223,7 +4331,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" ht="12.5">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4245,7 +4353,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" ht="12.5">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4267,7 +4375,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" ht="12.5">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4289,7 +4397,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" ht="12.5">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4311,7 +4419,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" ht="12.5">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4333,7 +4441,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" ht="12.5">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4355,7 +4463,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" ht="12.5">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4377,7 +4485,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" ht="12.5">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4399,7 +4507,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" ht="12.5">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4421,7 +4529,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" ht="12.5">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4443,7 +4551,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" ht="12.5">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4465,7 +4573,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" ht="12.5">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4504,20 +4612,20 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="10" customWidth="1"/>
     <col min="3" max="3" width="38" style="10" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" style="10" customWidth="1"/>
-    <col min="8" max="22" width="17.28515625" style="10" customWidth="1"/>
-    <col min="23" max="16384" width="14.42578125" style="10"/>
+    <col min="4" max="4" width="54.81640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="43.81640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="39.453125" style="10" customWidth="1"/>
+    <col min="8" max="22" width="17.26953125" style="10" customWidth="1"/>
+    <col min="23" max="16384" width="14.453125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.5" customHeight="1">
@@ -4564,7 +4672,7 @@
       <c r="A2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="88" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -4602,7 +4710,7 @@
       <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="25" t="s">
         <v>24</v>
       </c>
@@ -4640,7 +4748,7 @@
       <c r="A4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="79"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="25" t="s">
         <v>31</v>
       </c>
@@ -4678,7 +4786,7 @@
       <c r="A5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="79"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="25" t="s">
         <v>37</v>
       </c>
@@ -4740,7 +4848,7 @@
       <c r="A7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="88" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -4778,7 +4886,7 @@
       <c r="A8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="79"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="25" t="s">
         <v>48</v>
       </c>
@@ -4816,7 +4924,7 @@
       <c r="A9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="79"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="25" t="s">
         <v>31</v>
       </c>
@@ -4854,7 +4962,7 @@
       <c r="A10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="25" t="s">
         <v>54</v>
       </c>
@@ -4912,11 +5020,11 @@
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
     </row>
-    <row r="12" spans="1:22" ht="31.5">
+    <row r="12" spans="1:22" ht="31">
       <c r="A12" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="88" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -4950,11 +5058,11 @@
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
     </row>
-    <row r="13" spans="1:22" ht="94.5">
+    <row r="13" spans="1:22" ht="93">
       <c r="A13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="20" t="s">
         <v>62</v>
       </c>
@@ -4992,7 +5100,7 @@
       <c r="A14" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="79"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="25" t="s">
         <v>31</v>
       </c>
@@ -5054,7 +5162,7 @@
       <c r="A16" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="88" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -5088,11 +5196,11 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" s="13" customFormat="1" ht="31.5">
+    <row r="17" spans="1:22" s="13" customFormat="1" ht="31">
       <c r="A17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="79"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="25" t="s">
         <v>24</v>
       </c>
@@ -5119,11 +5227,11 @@
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
     </row>
-    <row r="18" spans="1:22" s="13" customFormat="1" ht="47.25">
+    <row r="18" spans="1:22" s="13" customFormat="1" ht="46.5">
       <c r="A18" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="79"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="25" t="s">
         <v>31</v>
       </c>
@@ -5150,7 +5258,7 @@
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
     </row>
-    <row r="19" spans="1:22" ht="15.75">
+    <row r="19" spans="1:22" ht="15.5">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -5174,11 +5282,11 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" ht="31.5">
+    <row r="20" spans="1:22" ht="31">
       <c r="A20" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="88" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -5212,11 +5320,11 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" ht="94.5">
+    <row r="21" spans="1:22" ht="93">
       <c r="A21" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="79"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="20" t="s">
         <v>62</v>
       </c>
@@ -5250,11 +5358,11 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" ht="47.25">
+    <row r="22" spans="1:22" ht="31">
       <c r="A22" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="79"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="25" t="s">
         <v>31</v>
       </c>
@@ -5288,7 +5396,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75">
+    <row r="23" spans="1:22" ht="15.5">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -5312,7 +5420,7 @@
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" ht="31.5">
+    <row r="24" spans="1:22" ht="31">
       <c r="A24" s="38" t="s">
         <v>83</v>
       </c>
@@ -5350,7 +5458,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" ht="15.75">
+    <row r="25" spans="1:22" ht="15.5">
       <c r="A25" s="17"/>
       <c r="B25" s="42"/>
       <c r="C25" s="31"/>
@@ -5374,7 +5482,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" ht="15.75">
+    <row r="26" spans="1:22" ht="15.5">
       <c r="A26" s="17"/>
       <c r="B26" s="42"/>
       <c r="C26" s="31"/>
@@ -5398,7 +5506,7 @@
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" ht="15.75">
+    <row r="27" spans="1:22" ht="15.5">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -5422,11 +5530,11 @@
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" ht="31.5">
+    <row r="28" spans="1:22" ht="31">
       <c r="A28" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="89" t="s">
         <v>85</v>
       </c>
       <c r="C28" s="38" t="s">
@@ -5460,11 +5568,11 @@
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" ht="47.25">
+    <row r="29" spans="1:22" ht="31">
       <c r="A29" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="79"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="52" t="s">
         <v>24</v>
       </c>
@@ -5498,11 +5606,11 @@
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" ht="47.25">
+    <row r="30" spans="1:22" ht="31">
       <c r="A30" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="79"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="25" t="s">
         <v>31</v>
       </c>
@@ -5536,11 +5644,11 @@
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" ht="31.5">
+    <row r="31" spans="1:22" ht="31">
       <c r="A31" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="79"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="25" t="s">
         <v>37</v>
       </c>
@@ -5574,7 +5682,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
     </row>
-    <row r="32" spans="1:22" ht="15.75">
+    <row r="32" spans="1:22" ht="15.5">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -5598,11 +5706,11 @@
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
     </row>
-    <row r="33" spans="1:22" ht="31.5">
+    <row r="33" spans="1:22" ht="31">
       <c r="A33" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="88" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -5636,11 +5744,11 @@
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
     </row>
-    <row r="34" spans="1:22" ht="94.5">
+    <row r="34" spans="1:22" ht="93">
       <c r="A34" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="79"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="20" t="s">
         <v>62</v>
       </c>
@@ -5674,11 +5782,11 @@
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
     </row>
-    <row r="35" spans="1:22" ht="47.25">
+    <row r="35" spans="1:22" ht="31">
       <c r="A35" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="79"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="25" t="s">
         <v>31</v>
       </c>
@@ -5712,7 +5820,7 @@
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
     </row>
-    <row r="36" spans="1:22" ht="15.75">
+    <row r="36" spans="1:22" ht="15.5">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -5736,11 +5844,11 @@
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
     </row>
-    <row r="37" spans="1:22" ht="31.5">
+    <row r="37" spans="1:22" ht="31">
       <c r="A37" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="90" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="20" t="s">
@@ -5774,11 +5882,11 @@
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
     </row>
-    <row r="38" spans="1:22" ht="47.25">
+    <row r="38" spans="1:22" ht="46.5">
       <c r="A38" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="82"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="22" t="s">
         <v>96</v>
       </c>
@@ -5812,11 +5920,11 @@
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
     </row>
-    <row r="39" spans="1:22" ht="47.25">
+    <row r="39" spans="1:22" ht="46.5">
       <c r="A39" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="82"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="22" t="s">
         <v>31</v>
       </c>
@@ -5850,11 +5958,11 @@
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
     </row>
-    <row r="40" spans="1:22" ht="47.25">
+    <row r="40" spans="1:22" ht="46.5">
       <c r="A40" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="82"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="22" t="s">
         <v>100</v>
       </c>
@@ -5888,9 +5996,9 @@
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
     </row>
-    <row r="41" spans="1:22" ht="31.5">
+    <row r="41" spans="1:22" ht="31">
       <c r="A41" s="16"/>
-      <c r="B41" s="82"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="25" t="s">
         <v>104</v>
       </c>
@@ -5924,7 +6032,7 @@
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
     </row>
-    <row r="42" spans="1:22" ht="15.75">
+    <row r="42" spans="1:22" ht="15.5">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -5948,11 +6056,11 @@
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
     </row>
-    <row r="43" spans="1:22" ht="31.5">
+    <row r="43" spans="1:22" ht="31">
       <c r="A43" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="88" t="s">
         <v>107</v>
       </c>
       <c r="C43" s="20" t="s">
@@ -5986,11 +6094,11 @@
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
     </row>
-    <row r="44" spans="1:22" ht="47.25">
+    <row r="44" spans="1:22" ht="31">
       <c r="A44" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="79"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="25" t="s">
         <v>110</v>
       </c>
@@ -6024,11 +6132,11 @@
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
     </row>
-    <row r="45" spans="1:22" ht="47.25">
+    <row r="45" spans="1:22" ht="31">
       <c r="A45" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="79"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="25" t="s">
         <v>31</v>
       </c>
@@ -6062,7 +6170,7 @@
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
     </row>
-    <row r="46" spans="1:22" ht="15.75">
+    <row r="46" spans="1:22" ht="15.5">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -6086,7 +6194,7 @@
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
     </row>
-    <row r="47" spans="1:22" ht="31.5">
+    <row r="47" spans="1:22" ht="31">
       <c r="A47" s="37" t="s">
         <v>112</v>
       </c>
@@ -6126,7 +6234,7 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
     </row>
-    <row r="48" spans="1:22" ht="15.75">
+    <row r="48" spans="1:22" ht="15.5">
       <c r="A48" s="37"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -6150,7 +6258,7 @@
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
     </row>
-    <row r="49" spans="1:22" ht="31.5">
+    <row r="49" spans="1:22" ht="31">
       <c r="A49" s="37" t="s">
         <v>118</v>
       </c>
@@ -6190,7 +6298,7 @@
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
     </row>
-    <row r="50" spans="1:22" ht="15.75">
+    <row r="50" spans="1:22" ht="15.5">
       <c r="A50" s="37"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -6214,7 +6322,7 @@
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
     </row>
-    <row r="51" spans="1:22" ht="31.5">
+    <row r="51" spans="1:22" ht="31">
       <c r="A51" s="37" t="s">
         <v>123</v>
       </c>
@@ -6254,7 +6362,7 @@
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
     </row>
-    <row r="52" spans="1:22" ht="15.75">
+    <row r="52" spans="1:22" ht="15.5">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -6278,11 +6386,11 @@
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
     </row>
-    <row r="53" spans="1:22" ht="31.5">
+    <row r="53" spans="1:22" ht="31">
       <c r="A53" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="78" t="s">
+      <c r="B53" s="87" t="s">
         <v>129</v>
       </c>
       <c r="C53" s="37" t="s">
@@ -6318,11 +6426,11 @@
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
     </row>
-    <row r="54" spans="1:22" ht="47.25">
+    <row r="54" spans="1:22" ht="31">
       <c r="A54" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="78"/>
+      <c r="B54" s="87"/>
       <c r="C54" s="37" t="s">
         <v>135</v>
       </c>
@@ -6356,11 +6464,11 @@
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
     </row>
-    <row r="55" spans="1:22" ht="47.25">
+    <row r="55" spans="1:22" ht="31">
       <c r="A55" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="78"/>
+      <c r="B55" s="87"/>
       <c r="C55" s="37" t="s">
         <v>135</v>
       </c>
@@ -6394,11 +6502,11 @@
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
     </row>
-    <row r="56" spans="1:22" ht="47.25">
+    <row r="56" spans="1:22" ht="31">
       <c r="A56" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="78"/>
+      <c r="B56" s="87"/>
       <c r="C56" s="37" t="s">
         <v>135</v>
       </c>
@@ -6432,7 +6540,7 @@
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
     </row>
-    <row r="57" spans="1:22" ht="15.75">
+    <row r="57" spans="1:22" ht="15.5">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -6456,7 +6564,7 @@
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
     </row>
-    <row r="58" spans="1:22" ht="15.75">
+    <row r="58" spans="1:22" ht="15.5">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -6480,7 +6588,7 @@
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
     </row>
-    <row r="59" spans="1:22" ht="15.75">
+    <row r="59" spans="1:22" ht="15.5">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -6504,7 +6612,7 @@
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
     </row>
-    <row r="60" spans="1:22" ht="15.75">
+    <row r="60" spans="1:22" ht="15.5">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -6528,7 +6636,7 @@
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
     </row>
-    <row r="61" spans="1:22" ht="15.75">
+    <row r="61" spans="1:22" ht="15.5">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -6552,7 +6660,7 @@
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
     </row>
-    <row r="62" spans="1:22" ht="15.75">
+    <row r="62" spans="1:22" ht="15.5">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -6686,19 +6794,19 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16376" ht="15.75">
+    <row r="1" spans="1:16376" ht="15.5">
       <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
@@ -6724,11 +6832,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16376" ht="120">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:16376" ht="124">
+      <c r="A2" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="87" t="s">
         <v>149</v>
       </c>
       <c r="C2" s="37" t="s">
@@ -55838,9 +55946,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16376" ht="110.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
+    <row r="3" spans="1:16376" ht="108.5">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="39" t="s">
         <v>154</v>
       </c>
@@ -55860,11 +55968,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16376" ht="110.25">
-      <c r="A4" s="78" t="s">
+    <row r="4" spans="1:16376" ht="108.5">
+      <c r="A4" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="87" t="s">
         <v>157</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -55886,9 +55994,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16376" ht="76.5">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
+    <row r="5" spans="1:16376" ht="62.5">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="39" t="s">
         <v>158</v>
       </c>
@@ -55908,11 +56016,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16376" ht="76.5">
-      <c r="A6" s="78" t="s">
+    <row r="6" spans="1:16376" ht="62.5">
+      <c r="A6" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="87" t="s">
         <v>162</v>
       </c>
       <c r="C6" s="39" t="s">
@@ -55934,9 +56042,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16376" ht="76.5">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
+    <row r="7" spans="1:16376" ht="62.5">
+      <c r="A7" s="93"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="69" t="s">
         <v>163</v>
       </c>
@@ -55956,11 +56064,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16376" ht="63">
-      <c r="A8" s="78" t="s">
+    <row r="8" spans="1:16376" ht="46.5">
+      <c r="A8" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="92" t="s">
         <v>166</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -55983,9 +56091,9 @@
       </c>
       <c r="I8" s="60"/>
     </row>
-    <row r="9" spans="1:16376" ht="63">
-      <c r="A9" s="78"/>
-      <c r="B9" s="83"/>
+    <row r="9" spans="1:16376" ht="46.5">
+      <c r="A9" s="87"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="64" t="s">
         <v>172</v>
       </c>
@@ -56006,7 +56114,7 @@
       </c>
       <c r="I9" s="59"/>
     </row>
-    <row r="10" spans="1:16376" ht="15.75">
+    <row r="10" spans="1:16376" ht="15.5">
       <c r="A10" s="62"/>
       <c r="B10" s="61"/>
       <c r="C10" s="58"/>
@@ -56051,15 +56159,15 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.81640625" customWidth="1"/>
+    <col min="7" max="7" width="36.1796875" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25">
+    <row r="1" spans="1:9" ht="46.5">
       <c r="A1" s="72" t="s">
         <v>8</v>
       </c>
@@ -56088,7 +56196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="63">
+    <row r="2" spans="1:9" ht="62">
       <c r="A2" s="63" t="s">
         <v>175</v>
       </c>
@@ -56115,7 +56223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="47.25">
+    <row r="3" spans="1:9" ht="46.5">
       <c r="A3" s="63" t="s">
         <v>181</v>
       </c>
@@ -56167,11 +56275,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="63">
+    <row r="5" spans="1:9" ht="46.5">
       <c r="A5" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="92" t="s">
         <v>189</v>
       </c>
       <c r="C5" s="74" t="s">
@@ -56192,11 +56300,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="63">
+    <row r="6" spans="1:9" ht="46.5">
       <c r="A6" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="83"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="74" t="s">
         <v>194</v>
       </c>
@@ -56215,11 +56323,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="63">
+    <row r="7" spans="1:9" ht="62">
       <c r="A7" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="92" t="s">
         <v>198</v>
       </c>
       <c r="C7" s="74" t="s">
@@ -56240,11 +56348,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="63">
+    <row r="8" spans="1:9" ht="62">
       <c r="A8" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="83"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="74" t="s">
         <v>194</v>
       </c>
@@ -56263,7 +56371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="63">
+    <row r="9" spans="1:9" ht="62">
       <c r="A9" s="63" t="s">
         <v>203</v>
       </c>
@@ -56288,7 +56396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="78.75">
+    <row r="10" spans="1:9" ht="77.5">
       <c r="A10" s="63" t="s">
         <v>208</v>
       </c>
@@ -56311,7 +56419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="78.75">
+    <row r="11" spans="1:9" ht="77.5">
       <c r="A11" s="63" t="s">
         <v>212</v>
       </c>
@@ -56338,11 +56446,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="47.25">
+    <row r="12" spans="1:9" ht="46.5">
       <c r="A12" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="92" t="s">
         <v>217</v>
       </c>
       <c r="C12" s="74" t="s">
@@ -56363,11 +56471,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="62">
       <c r="A13" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="74" t="s">
         <v>222</v>
       </c>
@@ -56386,11 +56494,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="47.25">
+    <row r="14" spans="1:9" ht="46.5">
       <c r="A14" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="92" t="s">
         <v>226</v>
       </c>
       <c r="C14" s="74" t="s">
@@ -56411,11 +56519,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="47.25">
+    <row r="15" spans="1:9" ht="46.5">
       <c r="A15" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="74" t="s">
         <v>231</v>
       </c>
@@ -56434,11 +56542,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="47.25">
+    <row r="16" spans="1:9" ht="46.5">
       <c r="A16" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="74" t="s">
         <v>235</v>
       </c>
@@ -56457,11 +56565,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="47.25">
+    <row r="17" spans="1:9" ht="46.5">
       <c r="A17" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="74" t="s">
         <v>239</v>
       </c>
@@ -56480,11 +56588,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="47.25">
+    <row r="18" spans="1:9" ht="46.5">
       <c r="A18" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="83"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="74" t="s">
         <v>243</v>
       </c>
@@ -56503,11 +56611,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="47.25">
+    <row r="19" spans="1:9" ht="46.5">
       <c r="A19" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="B19" s="83"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="74" t="s">
         <v>247</v>
       </c>
@@ -56526,11 +56634,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="47.25">
+    <row r="20" spans="1:9" ht="46.5">
       <c r="A20" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="83"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="74" t="s">
         <v>251</v>
       </c>
@@ -56549,11 +56657,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="47.25">
+    <row r="21" spans="1:9" ht="46.5">
       <c r="A21" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="B21" s="83"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="74" t="s">
         <v>255</v>
       </c>
@@ -56572,7 +56680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="63">
+    <row r="22" spans="1:9" ht="62">
       <c r="A22" s="63" t="s">
         <v>258</v>
       </c>
@@ -56611,84 +56719,87 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89C30A2-D2DF-4C2C-AD7B-5086228D1708}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CFA6E4-AE27-4CA7-9138-B74643BFA601}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="85" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+    <row r="1" spans="1:10" ht="20">
+      <c r="A1" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A2" s="88" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>346</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
+    <row r="2" spans="1:10" ht="409.5">
+      <c r="A2" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="J2" s="76"/>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>347</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>348</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+    <row r="3" spans="1:10" ht="153.75" customHeight="1">
+      <c r="A3" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="81" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="77"/>
+      <c r="J3" s="82"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="86" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A5" s="90" t="s">
-        <v>343</v>
-      </c>
-      <c r="B5" s="91" t="s">
-        <v>350</v>
-      </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="90" t="s">
-        <v>349</v>
-      </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+    <row r="4" spans="1:10" ht="69" customHeight="1">
+      <c r="A4" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="77"/>
+      <c r="F4" s="80" t="s">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -56701,18 +56812,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="19" width="17.28515625" customWidth="1"/>
+    <col min="1" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" customWidth="1"/>
+    <col min="7" max="19" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -56741,44 +56852,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="C3" s="6" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="C4" s="6" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
@@ -56786,44 +56897,44 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="C6" s="6" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="C7" s="6" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
@@ -56831,44 +56942,44 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="C9" s="6" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="C10" s="6" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -56885,18 +56996,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="1" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="19" width="17.28515625" customWidth="1"/>
+    <col min="7" max="19" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -56925,44 +57036,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="C3" s="6" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="C4" s="6" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -56979,16 +57090,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="20" width="17.28515625" customWidth="1"/>
+    <col min="1" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="5" max="20" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -57017,36 +57128,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="C3" s="6" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="C4" s="6" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
@@ -57054,44 +57165,44 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="C6" s="6" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="C7" s="6" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
@@ -57099,44 +57210,44 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="C9" s="6" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="C10" s="6" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
@@ -57144,44 +57255,44 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="C12" s="6" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="C13" s="6" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
@@ -57189,20 +57300,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="C15" s="6" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="C16" s="6" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -57219,16 +57330,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="20" width="17.28515625" customWidth="1"/>
+    <col min="1" max="5" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="24.7265625" customWidth="1"/>
+    <col min="7" max="20" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -57257,16 +57368,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
@@ -57274,58 +57385,58 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="C4" s="6" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="C5" s="6" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="C6" s="6" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
@@ -57333,19 +57444,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -57354,15 +57465,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010022AB07EDC08D1845A0568E8E28A360E8" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c94b66c02b795da41073b2e8cfb2e098">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -57476,6 +57578,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -57483,14 +57594,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33047548-F82D-41A4-BEA3-CADF18B10C77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8851356E-63CC-4D41-A82D-5916A435ECB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -57506,6 +57609,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33047548-F82D-41A4-BEA3-CADF18B10C77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662CFF32-7F26-4A6D-BF12-926ADA262589}">
   <ds:schemaRefs>
